--- a/Sent to Client/A4_final_report_Jennyfer Vik.xlsx
+++ b/Sent to Client/A4_final_report_Jennyfer Vik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennyfevik/Desktop/Data Analytics/Achievement 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennyfevik/Desktop/IC Basket Analysis/Sent to Client/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F503B0D4-680D-4A44-A021-F4C397BDDCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9E4EB6-EB16-E646-9D66-B8AC181A6599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36920" yWindow="1120" windowWidth="27920" windowHeight="17580" tabRatio="808" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39200" yWindow="2720" windowWidth="27920" windowHeight="17580" tabRatio="808" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Title Page" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
   <si>
     <t>Contents:</t>
   </si>
@@ -418,15 +418,6 @@
   </si>
   <si>
     <t>Customer Loyalty - Regular customers make up the largest part of the customer base, then the deemed loyal customers (those who have ordered over 40 times), then new customers.</t>
-  </si>
-  <si>
-    <t>Loyal</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Regular</t>
   </si>
   <si>
     <t>Across the board customers are predomenently low spenders</t>
@@ -1165,34 +1156,34 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5522,8 +5513,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="171426" y="832630"/>
-          <a:ext cx="641717" cy="730572"/>
+          <a:off x="170602" y="804717"/>
+          <a:ext cx="638635" cy="727064"/>
         </a:xfrm>
         <a:prstGeom prst="bentUpArrow">
           <a:avLst>
@@ -5571,8 +5562,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1410" y="60272"/>
-          <a:ext cx="1080274" cy="756156"/>
+          <a:off x="1402" y="36068"/>
+          <a:ext cx="1075086" cy="752525"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5641,8 +5632,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="38329" y="97191"/>
-        <a:ext cx="1006436" cy="682318"/>
+        <a:off x="38144" y="72810"/>
+        <a:ext cx="1001602" cy="679041"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{02D75559-D361-43C2-960D-0DE64B2217E1}">
@@ -5652,8 +5643,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1148063" y="132388"/>
-          <a:ext cx="1730030" cy="611159"/>
+          <a:off x="1142549" y="107838"/>
+          <a:ext cx="1721723" cy="608224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5727,8 +5718,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1148063" y="132388"/>
-        <a:ext cx="1730030" cy="611159"/>
+        <a:off x="1142549" y="107838"/>
+        <a:ext cx="1721723" cy="608224"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9621899D-0F5A-435B-840E-4641491BFF2E}">
@@ -5738,8 +5729,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="909647" y="909685"/>
-          <a:ext cx="1170304" cy="824271"/>
+          <a:off x="905278" y="881402"/>
+          <a:ext cx="1164684" cy="820313"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5811,8 +5802,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="949892" y="949930"/>
-        <a:ext cx="1089814" cy="743781"/>
+        <a:off x="945330" y="921454"/>
+        <a:ext cx="1084580" cy="740209"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FEDA8202-94DB-48E0-9F89-FDAC252494CB}">
@@ -5822,8 +5813,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2054569" y="1015859"/>
-          <a:ext cx="1177377" cy="611159"/>
+          <a:off x="2044701" y="987066"/>
+          <a:ext cx="1171723" cy="608224"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5877,8 +5868,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2054569" y="1015859"/>
-        <a:ext cx="1177377" cy="611159"/>
+        <a:off x="2044701" y="987066"/>
+        <a:ext cx="1171723" cy="608224"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -5900,8 +5891,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="198058" y="1095837"/>
-          <a:ext cx="744233" cy="847283"/>
+          <a:off x="198242" y="1063448"/>
+          <a:ext cx="742399" cy="845196"/>
         </a:xfrm>
         <a:prstGeom prst="bentUpArrow">
           <a:avLst>
@@ -5953,8 +5944,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="881" y="191809"/>
-          <a:ext cx="1252851" cy="876955"/>
+          <a:off x="1551" y="161647"/>
+          <a:ext cx="1249764" cy="874794"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6026,8 +6017,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="43698" y="234626"/>
-        <a:ext cx="1167217" cy="791321"/>
+        <a:off x="44263" y="204359"/>
+        <a:ext cx="1164340" cy="789370"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{02D75559-D361-43C2-960D-0DE64B2217E1}">
@@ -6037,8 +6028,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1272317" y="250773"/>
-          <a:ext cx="1762352" cy="708794"/>
+          <a:off x="1269853" y="220467"/>
+          <a:ext cx="1758009" cy="707047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6109,8 +6100,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1272317" y="250773"/>
-        <a:ext cx="1762352" cy="708794"/>
+        <a:off x="1269853" y="220467"/>
+        <a:ext cx="1758009" cy="707047"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9621899D-0F5A-435B-840E-4641491BFF2E}">
@@ -6120,8 +6111,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1071135" y="1176919"/>
-          <a:ext cx="1252851" cy="876955"/>
+          <a:off x="1069168" y="1144330"/>
+          <a:ext cx="1249764" cy="874794"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6193,8 +6184,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1113952" y="1219736"/>
-        <a:ext cx="1167217" cy="791321"/>
+        <a:off x="1111880" y="1187042"/>
+        <a:ext cx="1164340" cy="789370"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FEDA8202-94DB-48E0-9F89-FDAC252494CB}">
@@ -6204,8 +6195,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2348702" y="1260557"/>
-          <a:ext cx="911204" cy="708794"/>
+          <a:off x="2343587" y="1227762"/>
+          <a:ext cx="908959" cy="707047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6259,8 +6250,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2348702" y="1260557"/>
-        <a:ext cx="911204" cy="708794"/>
+        <a:off x="2343587" y="1227762"/>
+        <a:ext cx="908959" cy="707047"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -6282,8 +6273,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="92651" y="1372575"/>
-          <a:ext cx="951280" cy="657564"/>
+          <a:off x="94446" y="1331823"/>
+          <a:ext cx="947947" cy="655260"/>
         </a:xfrm>
         <a:prstGeom prst="bentUpArrow">
           <a:avLst>
@@ -6335,8 +6326,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="68595" y="517921"/>
-          <a:ext cx="2358571" cy="631760"/>
+          <a:off x="70474" y="480164"/>
+          <a:ext cx="2350308" cy="629546"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6408,8 +6399,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="99441" y="548767"/>
-        <a:ext cx="2296879" cy="570068"/>
+        <a:off x="101211" y="510901"/>
+        <a:ext cx="2288834" cy="568072"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{02D75559-D361-43C2-960D-0DE64B2217E1}">
@@ -6419,8 +6410,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2426113" y="327083"/>
-          <a:ext cx="1206346" cy="938374"/>
+          <a:off x="2419733" y="289995"/>
+          <a:ext cx="1202119" cy="935086"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6491,8 +6482,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2426113" y="327083"/>
-        <a:ext cx="1206346" cy="938374"/>
+        <a:off x="2419733" y="289995"/>
+        <a:ext cx="1202119" cy="935086"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9621899D-0F5A-435B-840E-4641491BFF2E}">
@@ -6502,8 +6493,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="977539" y="1581335"/>
-          <a:ext cx="2405992" cy="764729"/>
+          <a:off x="976234" y="1539853"/>
+          <a:ext cx="2397563" cy="762050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6572,8 +6563,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1014877" y="1618673"/>
-        <a:ext cx="2331316" cy="690053"/>
+        <a:off x="1013441" y="1577060"/>
+        <a:ext cx="2323149" cy="687636"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FEDA8202-94DB-48E0-9F89-FDAC252494CB}">
@@ -6583,8 +6574,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3453724" y="1490073"/>
-          <a:ext cx="1310297" cy="938374"/>
+          <a:off x="3443744" y="1448910"/>
+          <a:ext cx="1305706" cy="935086"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6638,8 +6629,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3453724" y="1490073"/>
-        <a:ext cx="1310297" cy="938374"/>
+        <a:off x="3443744" y="1448910"/>
+        <a:ext cx="1305706" cy="935086"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -6661,8 +6652,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="202131" y="1142168"/>
-          <a:ext cx="762645" cy="868245"/>
+          <a:off x="202404" y="1109772"/>
+          <a:ext cx="761379" cy="866803"/>
         </a:xfrm>
         <a:prstGeom prst="bentUpArrow">
           <a:avLst>
@@ -6710,8 +6701,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="76" y="224262"/>
-          <a:ext cx="1283846" cy="898651"/>
+          <a:off x="685" y="193391"/>
+          <a:ext cx="1281714" cy="897158"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6780,8 +6771,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="43952" y="268138"/>
-        <a:ext cx="1196094" cy="810899"/>
+        <a:off x="44489" y="237195"/>
+        <a:ext cx="1194106" cy="809550"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{02D75559-D361-43C2-960D-0DE64B2217E1}">
@@ -6791,8 +6782,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1283922" y="309969"/>
-          <a:ext cx="933747" cy="726329"/>
+          <a:off x="1282399" y="278956"/>
+          <a:ext cx="932196" cy="725123"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6856,8 +6847,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1283922" y="309969"/>
-        <a:ext cx="933747" cy="726329"/>
+        <a:off x="1282399" y="278956"/>
+        <a:ext cx="932196" cy="725123"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9621899D-0F5A-435B-840E-4641491BFF2E}">
@@ -6867,8 +6858,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1088478" y="1317660"/>
-          <a:ext cx="1283846" cy="898651"/>
+          <a:off x="1087279" y="1284973"/>
+          <a:ext cx="1281714" cy="897158"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6937,8 +6928,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1132354" y="1361536"/>
-        <a:ext cx="1196094" cy="810899"/>
+        <a:off x="1131083" y="1328777"/>
+        <a:ext cx="1194106" cy="809550"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FEDA8202-94DB-48E0-9F89-FDAC252494CB}">
@@ -6948,8 +6939,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2348444" y="1319451"/>
-          <a:ext cx="933747" cy="726329"/>
+          <a:off x="2345762" y="1286761"/>
+          <a:ext cx="932196" cy="725123"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7003,8 +6994,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2348444" y="1319451"/>
-        <a:ext cx="933747" cy="726329"/>
+        <a:off x="2345762" y="1286761"/>
+        <a:ext cx="932196" cy="725123"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -16110,182 +16101,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D350C5-FB45-3351-F5A8-D2ED2F3F9E20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5295900"/>
-          <a:ext cx="5842000" cy="4381500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>105835</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B9F369-8AC3-BD0A-A863-2B508239E928}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6032501" y="1638300"/>
-          <a:ext cx="5858934" cy="4394200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1D477E-F9D9-BAA1-BA62-AAC0D0707799}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11506200" y="1651000"/>
-          <a:ext cx="5842000" cy="4381500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>3176</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EAEBDA1-DA86-7F0F-E0DB-F66BE5ABA943}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="393700" y="1717676"/>
-          <a:ext cx="5041899" cy="3781424"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
       <xdr:row>35</xdr:row>
@@ -16311,7 +16126,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -16330,23 +16145,199 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C2EAB7-D40A-3A9D-FD70-448005CB78D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7F760B-91EA-716C-BCA1-564CE7D06BCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18884900" y="7124700"/>
+          <a:ext cx="5842000" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EB0C526-2B9E-DFEF-FF30-C53F93DCBE09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="14160500"/>
+          <a:ext cx="5842000" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51CB975-C464-F526-BD59-07754CCF7C03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="14360524"/>
+          <a:ext cx="5473700" cy="4105275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>143932</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC9FAEE-AF35-F4E4-A2D2-98D30C9C547F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12602632" y="14338300"/>
+          <a:ext cx="5266267" cy="3949700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE74DE0-E85B-3F1F-8420-6D14C3E4DAC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16362,8 +16353,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13182600" y="6997700"/>
-          <a:ext cx="5842000" cy="4165600"/>
+          <a:off x="18059400" y="14433550"/>
+          <a:ext cx="5410200" cy="4057650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16374,23 +16365,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
+        <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4804DF-BEB1-3F32-AE74-DFAAEDCD896B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AEF9838-2E38-A7F4-EF0E-D46D2769E28D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16406,8 +16397,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18707100" y="6997700"/>
-          <a:ext cx="5842000" cy="4381500"/>
+          <a:off x="13741400" y="7264402"/>
+          <a:ext cx="4000499" cy="4571998"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16418,23 +16409,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
+        <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83FE7B9-980B-5F9B-36D4-837F2F1B3DCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D857D6D-9ABC-5B76-79C7-C53BA82C1E53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16450,8 +16441,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="13989050"/>
-          <a:ext cx="5664200" cy="4248150"/>
+          <a:off x="254000" y="1822450"/>
+          <a:ext cx="5359400" cy="4019550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16462,23 +16453,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
+        <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD253206-C687-EAF5-CE7B-427DFED5A138}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5985770-BD70-A7DB-AD99-6ABE065F3695}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16494,8 +16485,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6553200" y="14084300"/>
-          <a:ext cx="5588000" cy="4191000"/>
+          <a:off x="5956300" y="1714500"/>
+          <a:ext cx="5842000" cy="4381500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16506,23 +16497,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>136524</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>639232</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>673099</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
+        <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B267622-F1C1-57C9-CA10-3E82BA796478}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{890D75DE-94B5-3772-2268-8081A01315D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16538,8 +16529,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12217400" y="14297024"/>
-          <a:ext cx="5473700" cy="4105275"/>
+          <a:off x="11751732" y="1917700"/>
+          <a:ext cx="5418667" cy="4064000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16550,23 +16541,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>368299</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
+        <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBAB905-E9DD-BA06-331A-AC1688C6A2BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0920AC-2519-7A90-3B48-0889EAC7DB5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16582,8 +16573,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17538699" y="14681200"/>
-          <a:ext cx="4876800" cy="3657600"/>
+          <a:off x="203200" y="6134100"/>
+          <a:ext cx="5842000" cy="4381500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17093,7 +17084,7 @@
   <dimension ref="B13:B22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -17157,7 +17148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="H1:Y25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
@@ -17549,8 +17540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:K30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -17842,8 +17833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AR74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P98" sqref="P98"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V63" sqref="V63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -17858,62 +17849,62 @@
       </c>
     </row>
     <row r="7" spans="2:26" ht="16" customHeight="1">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="L7" s="56" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="L7" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="S7" s="56" t="s">
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="S7" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
     </row>
     <row r="8" spans="2:26">
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
     </row>
     <row r="34" spans="12:44" ht="16" customHeight="1">
-      <c r="L34" s="56" t="s">
+      <c r="L34" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
       <c r="V34" s="57" t="s">
         <v>108</v>
       </c>
@@ -17922,50 +17913,50 @@
       <c r="Y34" s="57"/>
       <c r="Z34" s="57"/>
       <c r="AA34" s="57"/>
-      <c r="AD34" s="58" t="s">
-        <v>112</v>
+      <c r="AD34" s="56" t="s">
+        <v>109</v>
       </c>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="58"/>
-      <c r="AI34" s="58"/>
-      <c r="AJ34" s="58"/>
-      <c r="AK34" s="58"/>
-      <c r="AM34" s="54"/>
-      <c r="AN34" s="54"/>
-      <c r="AO34" s="54"/>
-      <c r="AP34" s="54"/>
-      <c r="AQ34" s="54"/>
-      <c r="AR34" s="54"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="56"/>
+      <c r="AM34" s="55"/>
+      <c r="AN34" s="55"/>
+      <c r="AO34" s="55"/>
+      <c r="AP34" s="55"/>
+      <c r="AQ34" s="55"/>
+      <c r="AR34" s="55"/>
     </row>
     <row r="35" spans="12:44" ht="16" customHeight="1">
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
       <c r="V35" s="57"/>
       <c r="W35" s="57"/>
       <c r="X35" s="57"/>
       <c r="Y35" s="57"/>
       <c r="Z35" s="57"/>
       <c r="AA35" s="57"/>
-      <c r="AD35" s="58"/>
-      <c r="AE35" s="58"/>
-      <c r="AF35" s="58"/>
-      <c r="AG35" s="58"/>
-      <c r="AH35" s="58"/>
-      <c r="AI35" s="58"/>
-      <c r="AJ35" s="58"/>
-      <c r="AK35" s="58"/>
-      <c r="AM35" s="54"/>
-      <c r="AN35" s="54"/>
-      <c r="AO35" s="54"/>
-      <c r="AP35" s="54"/>
-      <c r="AQ35" s="54"/>
-      <c r="AR35" s="54"/>
+      <c r="AD35" s="56"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="56"/>
+      <c r="AM35" s="55"/>
+      <c r="AN35" s="55"/>
+      <c r="AO35" s="55"/>
+      <c r="AP35" s="55"/>
+      <c r="AQ35" s="55"/>
+      <c r="AR35" s="55"/>
     </row>
     <row r="36" spans="12:44" ht="16" customHeight="1">
       <c r="V36" s="57"/>
@@ -17974,20 +17965,20 @@
       <c r="Y36" s="57"/>
       <c r="Z36" s="57"/>
       <c r="AA36" s="57"/>
-      <c r="AD36" s="58"/>
-      <c r="AE36" s="58"/>
-      <c r="AF36" s="58"/>
-      <c r="AG36" s="58"/>
-      <c r="AH36" s="58"/>
-      <c r="AI36" s="58"/>
-      <c r="AJ36" s="58"/>
-      <c r="AK36" s="58"/>
-      <c r="AM36" s="54"/>
-      <c r="AN36" s="54"/>
-      <c r="AO36" s="54"/>
-      <c r="AP36" s="54"/>
-      <c r="AQ36" s="54"/>
-      <c r="AR36" s="54"/>
+      <c r="AD36" s="56"/>
+      <c r="AE36" s="56"/>
+      <c r="AF36" s="56"/>
+      <c r="AG36" s="56"/>
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="56"/>
+      <c r="AJ36" s="56"/>
+      <c r="AK36" s="56"/>
+      <c r="AM36" s="55"/>
+      <c r="AN36" s="55"/>
+      <c r="AO36" s="55"/>
+      <c r="AP36" s="55"/>
+      <c r="AQ36" s="55"/>
+      <c r="AR36" s="55"/>
     </row>
     <row r="37" spans="12:44" ht="16" customHeight="1">
       <c r="V37" s="57"/>
@@ -17996,14 +17987,14 @@
       <c r="Y37" s="57"/>
       <c r="Z37" s="57"/>
       <c r="AA37" s="57"/>
-      <c r="AD37" s="58"/>
-      <c r="AE37" s="58"/>
-      <c r="AF37" s="58"/>
-      <c r="AG37" s="58"/>
-      <c r="AH37" s="58"/>
-      <c r="AI37" s="58"/>
-      <c r="AJ37" s="58"/>
-      <c r="AK37" s="58"/>
+      <c r="AD37" s="56"/>
+      <c r="AE37" s="56"/>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="56"/>
     </row>
     <row r="38" spans="12:44">
       <c r="V38" s="57"/>
@@ -18012,67 +18003,45 @@
       <c r="Y38" s="57"/>
       <c r="Z38" s="57"/>
       <c r="AA38" s="57"/>
-      <c r="AD38" s="58"/>
-      <c r="AE38" s="58"/>
-      <c r="AF38" s="58"/>
-      <c r="AG38" s="58"/>
-      <c r="AH38" s="58"/>
-      <c r="AI38" s="58"/>
-      <c r="AJ38" s="58"/>
-      <c r="AK38" s="58"/>
+      <c r="AD38" s="56"/>
+      <c r="AE38" s="56"/>
+      <c r="AF38" s="56"/>
+      <c r="AG38" s="56"/>
+      <c r="AH38" s="56"/>
+      <c r="AI38" s="56"/>
+      <c r="AJ38" s="56"/>
+      <c r="AK38" s="56"/>
     </row>
-    <row r="57" spans="3:35">
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
+    <row r="57" spans="3:9">
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
     </row>
-    <row r="58" spans="3:35">
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
+    <row r="58" spans="3:9">
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
     </row>
-    <row r="59" spans="3:35">
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-    </row>
-    <row r="62" spans="3:35">
-      <c r="AE62" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI62" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="3:35">
-      <c r="V63" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>110</v>
-      </c>
+    <row r="59" spans="3:9">
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
     </row>
     <row r="70" spans="6:31">
       <c r="F70" s="57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
@@ -18102,7 +18071,7 @@
       <c r="L72" s="57"/>
       <c r="M72" s="57"/>
       <c r="U72" s="57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="V72" s="57"/>
       <c r="W72" s="57"/>
@@ -18159,16 +18128,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B7:G8"/>
+    <mergeCell ref="L34:Q35"/>
+    <mergeCell ref="L7:P8"/>
+    <mergeCell ref="S7:Z8"/>
+    <mergeCell ref="V34:AA38"/>
     <mergeCell ref="C57:I59"/>
     <mergeCell ref="AM34:AR36"/>
     <mergeCell ref="AD34:AK38"/>
     <mergeCell ref="F70:M74"/>
     <mergeCell ref="U72:AE74"/>
-    <mergeCell ref="B7:G8"/>
-    <mergeCell ref="L34:Q35"/>
-    <mergeCell ref="L7:P8"/>
-    <mergeCell ref="S7:Z8"/>
-    <mergeCell ref="V34:AA38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q1" location="'Title Page'!A1" display="Title page" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
@@ -18183,7 +18152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:V35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
@@ -18203,86 +18172,86 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
-      <c r="M12" s="60" t="s">
+      <c r="M12" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="B14" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="B15" s="53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="M16" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+    </row>
+    <row r="17" spans="2:19">
+      <c r="B17" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="M13" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
     </row>
-    <row r="14" spans="2:22">
-      <c r="B14" s="59" t="s">
+    <row r="18" spans="2:19">
+      <c r="B18" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
     </row>
-    <row r="15" spans="2:22">
-      <c r="B15" s="59" t="s">
+    <row r="19" spans="2:19">
+      <c r="B19" s="53" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="2:22">
-      <c r="M16" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-    </row>
-    <row r="17" spans="2:19">
-      <c r="B17" s="59" t="s">
+    <row r="21" spans="2:19">
+      <c r="B21" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-    </row>
-    <row r="18" spans="2:19">
-      <c r="B18" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19">
-      <c r="B19" s="59" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19">
-      <c r="B21" s="59" t="s">
-        <v>121</v>
-      </c>
       <c r="M21" s="57" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N21" s="57"/>
       <c r="O21" s="57"/>
@@ -18292,8 +18261,8 @@
       <c r="S21" s="57"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="59" t="s">
-        <v>122</v>
+      <c r="B22" s="53" t="s">
+        <v>119</v>
       </c>
       <c r="M22" s="57"/>
       <c r="N22" s="57"/>
@@ -18304,122 +18273,122 @@
       <c r="S22" s="57"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="M24" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="B26" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="B28" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="M24" s="55" t="s">
-        <v>131</v>
+      <c r="M28" s="58" t="s">
+        <v>129</v>
       </c>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
     </row>
-    <row r="25" spans="2:19">
-      <c r="B25" s="59" t="s">
+    <row r="29" spans="2:19">
+      <c r="B29" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-    </row>
-    <row r="26" spans="2:19">
-      <c r="B26" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-    </row>
-    <row r="28" spans="2:19">
-      <c r="B28" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="M28" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-    </row>
-    <row r="29" spans="2:19">
-      <c r="B29" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="55"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
     </row>
     <row r="33" spans="13:19">
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="55"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
     </row>
     <row r="34" spans="13:19">
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
     </row>
     <row r="35" spans="13:19">
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
